--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A15118-5C77-470B-922C-72DC5B547220}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3901D1C4-FF95-4AEA-B683-6BC4767E9E04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
-  <si>
-    <t>Projektbeskrivelse</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Arbejdsdage</t>
   </si>
@@ -147,9 +144,6 @@
     <t>Uge 4 (21-27)</t>
   </si>
   <si>
-    <t>Iterations</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
@@ -168,12 +162,6 @@
     <t>Mere responsive</t>
   </si>
   <si>
-    <t>Hvis ekstra tid</t>
-  </si>
-  <si>
-    <t>Hen af vejen</t>
-  </si>
-  <si>
     <t>Bruger tests</t>
   </si>
   <si>
@@ -195,10 +183,22 @@
     <t>Portofolio wireframe</t>
   </si>
   <si>
-    <t xml:space="preserve">Forside container setup </t>
-  </si>
-  <si>
     <t>Sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container setup </t>
+  </si>
+  <si>
+    <t>Pæn baggrund</t>
+  </si>
+  <si>
+    <t>Opgave</t>
+  </si>
+  <si>
+    <t>Opgavebeskrivelse</t>
+  </si>
+  <si>
+    <t>Skole reflektioner</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,22 +711,22 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -735,7 +735,7 @@
       <c r="K1" s="15"/>
       <c r="L1" s="16"/>
       <c r="M1" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
@@ -744,7 +744,7 @@
       <c r="R1" s="15"/>
       <c r="S1" s="16"/>
       <c r="T1" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
@@ -753,7 +753,7 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="16"/>
       <c r="AA1" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB1" s="15"/>
       <c r="AC1" s="15"/>
@@ -764,85 +764,85 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="V2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="W2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
@@ -850,15 +850,35 @@
       <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43467</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43467</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -869,22 +889,18 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5" s="7">
-        <v>43467</v>
+        <v>43468</v>
       </c>
       <c r="E5" s="7">
-        <v>43467</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+        <v>43468</v>
+      </c>
+      <c r="I5" s="13"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -897,16 +913,9 @@
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>43468</v>
-      </c>
-      <c r="E6" s="7">
-        <v>43468</v>
-      </c>
-      <c r="I6" s="13"/>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
@@ -917,11 +926,20 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="10">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43467</v>
+      </c>
+      <c r="E7" s="7">
+        <v>43470</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -932,19 +950,18 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="7">
-        <v>43467</v>
+        <v>43468</v>
       </c>
       <c r="E8" s="7">
-        <v>43467</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="J8" s="6"/>
+        <v>43468</v>
+      </c>
+      <c r="I8" s="13"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -955,18 +972,18 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9" s="7">
-        <v>43468</v>
+        <v>43469</v>
       </c>
       <c r="E9" s="7">
-        <v>43468</v>
-      </c>
-      <c r="I9" s="13"/>
+        <v>43469</v>
+      </c>
+      <c r="J9" s="13"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -977,12 +994,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="K10" s="9"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -996,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -1011,7 +1029,7 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
@@ -1041,7 +1059,7 @@
         <v>33</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
@@ -1056,7 +1074,7 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
@@ -1068,11 +1086,13 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
@@ -1082,8 +1102,12 @@
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
       <c r="V17" s="9"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
@@ -1091,24 +1115,12 @@
       <c r="AG17" s="4"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -1116,15 +1128,11 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="9"/>
+        <v>43</v>
+      </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
@@ -1132,59 +1140,69 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="6"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="13"/>
       <c r="R23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" t="s">
         <v>42</v>
       </c>
-      <c r="S23" t="s">
-        <v>44</v>
-      </c>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
     </row>
     <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
       <c r="C24" s="11">
-        <f>C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18</f>
-        <v>17.5</v>
+        <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19</f>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F1:L1"/>

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3901D1C4-FF95-4AEA-B683-6BC4767E9E04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B318A06E-503F-4A12-82C2-CA7B76C08F9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Arbejdsdage</t>
   </si>
@@ -60,48 +60,6 @@
     <t>Uge 2 (7-13)</t>
   </si>
   <si>
-    <t>I1</t>
-  </si>
-  <si>
-    <t>I2</t>
-  </si>
-  <si>
-    <t>I3</t>
-  </si>
-  <si>
-    <t>I4</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
-    <t>I7</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
-    <t>I10</t>
-  </si>
-  <si>
-    <t>I11</t>
-  </si>
-  <si>
-    <t>I12</t>
-  </si>
-  <si>
-    <t>I13</t>
-  </si>
-  <si>
-    <t>I14</t>
-  </si>
-  <si>
     <t>Planlagt</t>
   </si>
   <si>
@@ -171,9 +129,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>I0</t>
-  </si>
-  <si>
     <t>Numrene står for iteration og så de eventuelt kan refereres til senere</t>
   </si>
   <si>
@@ -186,9 +141,6 @@
     <t>Sidebar</t>
   </si>
   <si>
-    <t xml:space="preserve">Container setup </t>
-  </si>
-  <si>
     <t>Pæn baggrund</t>
   </si>
   <si>
@@ -199,6 +151,57 @@
   </si>
   <si>
     <t>Skole reflektioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forside Container setup </t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>O6</t>
+  </si>
+  <si>
+    <t>O7</t>
+  </si>
+  <si>
+    <t>O8</t>
+  </si>
+  <si>
+    <t>O9</t>
+  </si>
+  <si>
+    <t>O10</t>
+  </si>
+  <si>
+    <t>O11</t>
+  </si>
+  <si>
+    <t>O12</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>O14</t>
+  </si>
+  <si>
+    <t>O15</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,13 +714,13 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -726,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -744,7 +747,7 @@
       <c r="R1" s="15"/>
       <c r="S1" s="16"/>
       <c r="T1" s="14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
@@ -753,7 +756,7 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="16"/>
       <c r="AA1" s="14" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AB1" s="15"/>
       <c r="AC1" s="15"/>
@@ -764,7 +767,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -851,7 +854,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -860,10 +863,10 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -886,10 +889,10 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -908,10 +911,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -923,10 +926,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -939,7 +942,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="13"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -947,10 +950,10 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -969,10 +972,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -991,16 +994,17 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" s="7"/>
       <c r="K10" s="9"/>
+      <c r="L10" s="6"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -1008,10 +1012,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1023,10 +1027,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1038,10 +1042,10 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1053,10 +1057,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -1068,10 +1072,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1083,10 +1087,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1100,10 +1104,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>0.5</v>
@@ -1115,6 +1119,9 @@
       <c r="AG17" s="4"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -1128,10 +1135,10 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
@@ -1140,10 +1147,10 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="6"/>
@@ -1154,10 +1161,10 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
@@ -1167,24 +1174,24 @@
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="13"/>
       <c r="R23" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="S23" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
@@ -1197,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B318A06E-503F-4A12-82C2-CA7B76C08F9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE942BDB-4040-4AD3-8E4A-0E93B064ECA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,11 +1000,12 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7"/>
       <c r="K10" s="9"/>
       <c r="L10" s="6"/>
+      <c r="M10" s="13"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -1201,7 +1202,7 @@
     <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="11">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE942BDB-4040-4AD3-8E4A-0E93B064ECA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D380C752-24E5-41C7-B5DB-EEBD9F261205}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="60">
   <si>
     <t>Arbejdsdage</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,6 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,7 +705,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,6 +1025,9 @@
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="Y11" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
@@ -1081,6 +1088,7 @@
       <c r="C15">
         <v>2</v>
       </c>
+      <c r="N15" s="13"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D380C752-24E5-41C7-B5DB-EEBD9F261205}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65018B91-0198-4B0B-AE68-994CE8522DC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Arbejdsdage</t>
   </si>
@@ -75,15 +75,6 @@
     <t>Projekt side</t>
   </si>
   <si>
-    <t>Portfolio projekt side</t>
-  </si>
-  <si>
-    <t>Vejr App  projekt side</t>
-  </si>
-  <si>
-    <t>Sweetbot  projekt side</t>
-  </si>
-  <si>
     <t>Om mig side</t>
   </si>
   <si>
@@ -205,6 +196,18 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Fin pudsning</t>
+  </si>
+  <si>
+    <t>Portfolio projekt tekst</t>
+  </si>
+  <si>
+    <t>Sweetbot  projekt tekst</t>
+  </si>
+  <si>
+    <t>Vejr App  projekt tekst</t>
   </si>
 </sst>
 </file>
@@ -378,6 +381,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,7 +391,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,7 +708,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,10 +721,10 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -732,46 +735,46 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="F1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="17"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -858,7 +861,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -867,10 +870,10 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -893,7 +896,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -930,10 +933,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -954,7 +957,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -976,10 +979,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -998,7 +1001,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1017,16 +1020,18 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="17" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Y11" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -1035,10 +1040,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1050,10 +1055,10 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1065,10 +1070,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -1080,13 +1085,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="13"/>
       <c r="AD15" s="4"/>
@@ -1096,10 +1101,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1113,10 +1118,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>0.5</v>
@@ -1129,6 +1134,9 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
       </c>
       <c r="AD18" s="4"/>
@@ -1144,10 +1152,10 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
@@ -1156,10 +1164,10 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="6"/>
@@ -1170,10 +1178,10 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
@@ -1183,24 +1191,24 @@
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="13"/>
       <c r="R23" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
@@ -1213,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65018B91-0198-4B0B-AE68-994CE8522DC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7790FB3-5031-4EBB-92B7-E1766F47E023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -207,7 +207,7 @@
     <t>Sweetbot  projekt tekst</t>
   </si>
   <si>
-    <t>Vejr App  projekt tekst</t>
+    <t>Vejr App projekt tekst</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,6 +1030,7 @@
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
       <c r="Y11" s="14" t="s">
         <v>56</v>
       </c>
@@ -1139,6 +1140,10 @@
       <c r="B18" t="s">
         <v>57</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="6"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -1218,7 +1223,7 @@
     <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="11">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
         <v>31</v>

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7790FB3-5031-4EBB-92B7-E1766F47E023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46497DFC-8340-469A-8EC5-131BC24F0C04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -708,7 +708,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46497DFC-8340-469A-8EC5-131BC24F0C04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B37D8F-CE50-4316-8E79-51C35497B076}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t/>
   </si>
   <si>
-    <t>Fin pudsning</t>
-  </si>
-  <si>
     <t>Portfolio projekt tekst</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Vejr App projekt tekst</t>
+  </si>
+  <si>
+    <t>Fin pudsning/diverse</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,14 +1023,15 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
       <c r="Y11" s="14" t="s">
         <v>56</v>
       </c>
@@ -1044,11 +1045,12 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="S12" s="6"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -1059,7 +1061,7 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1138,12 +1140,14 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -1223,7 +1227,7 @@
     <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="11">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
         <v>31</v>

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B37D8F-CE50-4316-8E79-51C35497B076}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881C296D-B960-47AC-A561-56D0446AB2DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Arbejdsdage</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Iteration er færdig</t>
   </si>
   <si>
-    <t>Bug testing og fin pudsning</t>
-  </si>
-  <si>
     <t>Mere responsive</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
   </si>
   <si>
     <t>O15</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t/>
@@ -708,7 +702,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -861,7 +855,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -870,10 +864,10 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -896,7 +890,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -918,7 +912,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -926,6 +920,7 @@
       <c r="C6" s="10">
         <v>3</v>
       </c>
+      <c r="T6" s="6"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
@@ -933,10 +928,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -957,7 +952,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -979,10 +974,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -1001,7 +996,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1020,10 +1015,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1033,7 +1028,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="Y11" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -1042,10 +1037,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1058,14 +1053,15 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="T13" s="6"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -1073,7 +1069,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1104,10 +1100,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1121,10 +1117,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>0.5</v>
@@ -1137,10 +1133,10 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1161,11 +1157,14 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="6"/>
+      <c r="T20" s="6"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
@@ -1173,25 +1172,18 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="6"/>
+        <v>26</v>
+      </c>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
@@ -1230,7 +1222,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881C296D-B960-47AC-A561-56D0446AB2DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39EF5D-A955-44FD-BB9B-2155E89DFEC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Arbejdsdage</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Opgavebeskrivelse</t>
   </si>
   <si>
-    <t>Skole reflektioner</t>
-  </si>
-  <si>
     <t xml:space="preserve">Forside Container setup </t>
   </si>
   <si>
@@ -195,13 +192,22 @@
     <t>Portfolio projekt tekst</t>
   </si>
   <si>
-    <t>Sweetbot  projekt tekst</t>
-  </si>
-  <si>
     <t>Vejr App projekt tekst</t>
   </si>
   <si>
     <t>Fin pudsning/diverse</t>
+  </si>
+  <si>
+    <t>Sweetbot projekt tekst</t>
+  </si>
+  <si>
+    <t>O16</t>
+  </si>
+  <si>
+    <t>XD Portfolio projekt tekst</t>
+  </si>
+  <si>
+    <t>Lærings reflektioner</t>
   </si>
 </sst>
 </file>
@@ -365,9 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -376,6 +379,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,7 +708,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,6 +716,7 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="6" max="33" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -779,7 +786,7 @@
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -800,7 +807,7 @@
       <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -821,7 +828,7 @@
       <c r="T2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="V2" s="3" t="s">
@@ -842,7 +849,7 @@
       <c r="AA2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="AC2" s="3" t="s">
@@ -864,7 +871,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -878,11 +885,11 @@
       <c r="E4" s="7">
         <v>43467</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -890,7 +897,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -904,7 +911,7 @@
       <c r="E5" s="7">
         <v>43468</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="12"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -912,15 +919,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10">
-        <v>3</v>
+      <c r="C6" s="9">
+        <v>2</v>
       </c>
       <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="12"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
@@ -928,10 +937,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -944,7 +953,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="12"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -952,7 +961,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -966,7 +975,7 @@
       <c r="E8" s="7">
         <v>43468</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="12"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -974,7 +983,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -988,7 +997,7 @@
       <c r="E9" s="7">
         <v>43469</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="12"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -996,7 +1005,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1005,9 +1014,9 @@
         <v>2</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="13"/>
+      <c r="M10" s="12"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -1015,10 +1024,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1026,9 +1035,9 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="Y11" s="14" t="s">
-        <v>54</v>
+      <c r="R11" s="12"/>
+      <c r="Y11" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -1037,15 +1046,14 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="S12" s="6"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -1053,15 +1061,15 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="T13" s="6"/>
+      <c r="S13" s="12"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -1069,14 +1077,16 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="V14" s="12"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
@@ -1084,15 +1094,15 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="U15" s="6"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -1100,16 +1110,15 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
+      <c r="N16" s="12"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
@@ -1117,15 +1126,16 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
-      </c>
-      <c r="V17" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
@@ -1133,23 +1143,33 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="8"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>4.5</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -1162,7 +1182,7 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="6"/>
       <c r="T20" s="6"/>
       <c r="AD20" s="4"/>
@@ -1198,13 +1218,13 @@
         <v>9</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K23" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="13"/>
+      <c r="Q23" s="12"/>
       <c r="R23" s="5" t="s">
         <v>23</v>
       </c>
@@ -1217,8 +1237,8 @@
       <c r="AG23" s="4"/>
     </row>
     <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="11">
-        <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19</f>
+      <c r="C24" s="10">
+        <f>C4+C5+C6+C7+C8+C9+C10+C11+C13+C14+C15+C16+C17+C18+C19</f>
         <v>22</v>
       </c>
       <c r="F24" t="s">

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39EF5D-A955-44FD-BB9B-2155E89DFEC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DB358C-A998-4114-9421-0BCCDA82A965}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -201,13 +201,13 @@
     <t>Sweetbot projekt tekst</t>
   </si>
   <si>
-    <t>O16</t>
-  </si>
-  <si>
     <t>XD Portfolio projekt tekst</t>
   </si>
   <si>
     <t>Lærings reflektioner</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,11 +1049,12 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="X12" s="12"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -1102,7 +1103,7 @@
       <c r="C15">
         <v>0.5</v>
       </c>
-      <c r="U15" s="6"/>
+      <c r="U15" s="12"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -1136,6 +1137,7 @@
       </c>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
+      <c r="Y17" s="12"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
@@ -1146,12 +1148,13 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="V18" s="8"/>
+      <c r="W18" s="12"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -1159,7 +1162,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -1177,7 +1180,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DB358C-A998-4114-9421-0BCCDA82A965}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C2EBC-5A95-4EA5-BE98-4649FC6AE29F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Arbejdsdage</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Slut</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -99,12 +93,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>Iteration i process</t>
-  </si>
-  <si>
-    <t>Iteration er færdig</t>
-  </si>
-  <si>
     <t>Mere responsive</t>
   </si>
   <si>
@@ -208,6 +196,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Opgave i process</t>
+  </si>
+  <si>
+    <t>Opgave er færdig</t>
   </si>
 </sst>
 </file>
@@ -354,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,7 +364,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -705,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145A20FC-E69A-4B8C-A182-1DD273A9F326}">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,547 +709,517 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="6" max="33" width="3.7109375" customWidth="1"/>
+    <col min="4" max="31" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="15" t="s">
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="16"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="17"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AE2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
-      <c r="D4" s="7">
-        <v>43467</v>
-      </c>
-      <c r="E4" s="7">
-        <v>43467</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
-      <c r="D5" s="7">
-        <v>43468</v>
-      </c>
-      <c r="E5" s="7">
-        <v>43468</v>
-      </c>
-      <c r="I5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="12"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="11"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
-        <v>43467</v>
-      </c>
-      <c r="E7" s="7">
-        <v>43470</v>
-      </c>
+      <c r="F7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="7">
-        <v>43468</v>
-      </c>
-      <c r="E8" s="7">
-        <v>43468</v>
-      </c>
-      <c r="I8" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
-      <c r="D9" s="7">
-        <v>43469</v>
-      </c>
-      <c r="E9" s="7">
-        <v>43469</v>
-      </c>
-      <c r="J9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="12"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="11"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="12"/>
-      <c r="Y11" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="P11" s="11"/>
+      <c r="W11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="X12" s="12"/>
+      <c r="V12" s="11"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="S13" s="12"/>
+      <c r="Q13" s="11"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="T14" s="6"/>
-      <c r="V14" s="12"/>
+      <c r="R14" s="6"/>
+      <c r="T14" s="11"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
-      <c r="U15" s="12"/>
+      <c r="S15" s="11"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="N16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="Y17" s="12"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="W17" s="11"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="12"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="11"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19">
-        <v>4.5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="6"/>
-      <c r="T20" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="11" t="s">
-        <v>23</v>
+      <c r="J23" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="Q23" s="11"/>
       <c r="R23" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-    </row>
-    <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="10">
+    </row>
+    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="9">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C13+C14+C15+C16+C17+C18+C19</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gantt kort layout.xlsx
+++ b/gantt kort layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThyMarX\Documents\CphBusiness MultimediaDesign\1. semester\eksamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C2EBC-5A95-4EA5-BE98-4649FC6AE29F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C695DA9A-FC79-403B-A23F-9546388F0302}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{2E8EC4C4-1EDA-4314-B0C2-B3663FB76D74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Arbejdsdage</t>
   </si>
@@ -51,9 +51,6 @@
     <t>NOTE:</t>
   </si>
   <si>
-    <t>Uge 2 (7-13)</t>
-  </si>
-  <si>
     <t>Planlagt</t>
   </si>
   <si>
@@ -78,24 +75,12 @@
     <t>Dage i alt:</t>
   </si>
   <si>
-    <t>Uge 1 (31-6)</t>
-  </si>
-  <si>
-    <t>Uge 3 (14-20)</t>
-  </si>
-  <si>
-    <t>Uge 4 (21-27)</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
     <t>=</t>
   </si>
   <si>
-    <t>Mere responsive</t>
-  </si>
-  <si>
     <t>Bruger tests</t>
   </si>
   <si>
@@ -183,9 +168,6 @@
     <t>Vejr App projekt tekst</t>
   </si>
   <si>
-    <t>Fin pudsning/diverse</t>
-  </si>
-  <si>
     <t>Sweetbot projekt tekst</t>
   </si>
   <si>
@@ -195,13 +177,25 @@
     <t>Lærings reflektioner</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Opgave i process</t>
   </si>
   <si>
     <t>Opgave er færdig</t>
+  </si>
+  <si>
+    <t>Fin pudsning/ekstra features</t>
+  </si>
+  <si>
+    <t>Uge 1</t>
+  </si>
+  <si>
+    <t>Uge 2</t>
+  </si>
+  <si>
+    <t>Uge 3</t>
+  </si>
+  <si>
+    <t>Uge 4</t>
   </si>
 </sst>
 </file>
@@ -348,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,8 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,6 +367,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,6 +378,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,528 +707,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145A20FC-E69A-4B8C-A182-1DD273A9F326}">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="31" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" style="19" customWidth="1"/>
+    <col min="4" max="28" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="I1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="P1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="16"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="W1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="X2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20">
         <v>2</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="9"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="9"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="19">
         <v>4</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="9"/>
+      <c r="U11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="19">
         <v>1</v>
       </c>
-      <c r="Z2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4">
+      <c r="T12" s="9"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="R14" s="9"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19">
         <v>0.5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="11"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="11"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
+      <c r="Q15" s="9"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="11"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="J16" s="9"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="9"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="C23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
         <v>50</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="11"/>
-      <c r="W11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="V12" s="11"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" t="s">
         <v>51</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="11"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="R14" s="6"/>
-      <c r="T14" s="11"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>0.5</v>
-      </c>
-      <c r="S15" s="11"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="W17" s="11"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="11"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="10" t="s">
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="21">
+        <f>C4+C5+C6+C7+C8+C9+C10+C11+C13+C14+C15+C16+C17+C18+C20</f>
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
         <v>21</v>
       </c>
-      <c r="K23" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-    </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="9">
-        <f>C4+C5+C6+C7+C8+C9+C10+C11+C13+C14+C15+C16+C17+C18+C19</f>
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
